--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyanhong/PycharmProjects/InterAutoTest_W/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\InterAutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B5483-9265-495F-902F-8E8D2A1F8E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
-    <sheet name="user" sheetId="1" r:id="rId2"/>
+    <sheet name="培优CMS" sheetId="3" r:id="rId2"/>
+    <sheet name="user" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -639,12 +641,45 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>/system/sysUser/login</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginName":"13671388253","password":"388253"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功用例</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cdoopw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginName":"13582905701","password":"905701"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,7 +1438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,26 +1499,38 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="46" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="46" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1493,12 +1540,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1514,9 +1555,15 @@
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1788,6 +1835,277 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1802,21 +2120,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:L20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="用例ID" dataDxfId="11"/>
-    <tableColumn id="13" name="模块" dataDxfId="10"/>
-    <tableColumn id="14" name="接口名称" dataDxfId="9"/>
-    <tableColumn id="3" name="请求URL" dataDxfId="8"/>
-    <tableColumn id="15" name="前置条件" dataDxfId="7"/>
-    <tableColumn id="4" name="请求类型" dataDxfId="6"/>
-    <tableColumn id="16" name="请求参数类型" dataDxfId="5"/>
-    <tableColumn id="5" name="请求参数" dataDxfId="4"/>
-    <tableColumn id="9" name="预期结果" dataDxfId="3"/>
-    <tableColumn id="10" name="实际结果" dataDxfId="2"/>
-    <tableColumn id="11" name="备注" dataDxfId="1"/>
-    <tableColumn id="18" name="是否运行" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="用例ID" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="模块" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="接口名称" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="请求URL" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="前置条件" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="请求类型" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="请求参数类型" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="请求参数" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="预期结果" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="实际结果" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="备注" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="是否运行" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CB8BC8E8-67D6-41F9-844C-82AFB568FC1D}" name="表2_6" displayName="表2_6" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L20" xr:uid="{787EB2E0-D418-4732-BF10-4E6FDBAE63A3}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{EEEB7C77-163E-4292-A277-0EC83D6F59C8}" name="用例ID" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{ED32387C-5676-4A55-B29C-F8AFB32C6BFB}" name="模块" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{1945778D-CCBE-4BEA-9508-7C3CAAF581C1}" name="接口名称" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{128E4988-E6AC-4EBE-95A2-639227461B23}" name="请求URL" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{4B8B3985-49B9-406C-8874-DCEEC01D686E}" name="前置条件" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5A37E2B2-94BD-4C43-A36F-765B49FAF647}" name="请求类型" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{74AC1D73-7C1A-49C9-B877-91CB6E01AA68}" name="请求参数类型" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AB86C010-B395-4639-8310-9410BF654839}" name="请求参数" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{AA768B5C-9D1D-4A92-93AF-79D14606BB27}" name="预期结果" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{3874F642-879B-4784-BAB8-ED9748F86823}" name="实际结果" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FCFEC156-F04A-4DFD-9D3D-2256F16B052E}" name="备注" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{31F42536-F512-4F4B-AF8C-404D196A052E}" name="是否运行" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2084,14 +2423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="I7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
@@ -2103,7 +2442,7 @@
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2528,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2566,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2604,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="28">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2642,7 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="28">
       <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
@@ -2341,7 +2680,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -2374,7 +2713,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2414,7 +2753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="70">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
@@ -2450,7 +2789,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="28">
       <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
@@ -2492,7 +2831,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
         <v>66</v>
       </c>
@@ -2534,7 +2873,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2552,7 +2891,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2570,7 +2909,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2590,7 +2929,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2610,7 +2949,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2630,7 +2969,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2650,7 +2989,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2664,7 +3003,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2678,7 +3017,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2695,7 +3034,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="http://172.17.0.139:5004/categories/115/skus/"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://172.17.0.139:5004/categories/115/skus/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2706,14 +3045,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF932F65-89C8-42EC-8E15-854D7A047C1E}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="42">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="42">
+      <c r="A3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://pycmstsl.lexue.com/system/sysUser/login" xr:uid="{D0E95A0F-0B58-47B4-8E9B-B66C2BA87B1A}"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://pycmstsl.lexue.com/system/sysUser/login" xr:uid="{B40257DB-EA9E-4D71-B720-FE0080A121D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
@@ -2723,7 +3525,7 @@
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
@@ -2732,43 +3534,43 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\InterAutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B5483-9265-495F-902F-8E8D2A1F8E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0022F9DC-56C4-4BD3-809C-3D3D93BA9317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
     <sheet name="培优CMS" sheetId="3" r:id="rId2"/>
     <sheet name="user" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>登录成功用例</t>
     <rPh sb="0" eb="1">
       <t>wgv</t>
@@ -664,15 +660,104 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>login_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loginName":"13582905701","password":"905701"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
+    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded","signature":"1119E9D5C9468DD944A9F96E61D7365B3F47D5A4"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部菜单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/sysUser/listMenusAndFunctionsWithinPerm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": "JWT ${token}$"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","isAdmin":"2","token":"${token}$","userId":"${sysUserId}$","signature":"${signature}$"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>listCampusRegion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取校区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/basic/campusRegion/listCampusRegion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0","selectId":"0"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","isAdmin":"2","token":"${token}$","userId":"${sysUserId}$","signature":"${signature}$"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/basic/school/saveSchool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建学校</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveSchool</t>
+  </si>
+  <si>
+    <t>{
+	"bigAreaId": "103",
+	"provinceId": "210000",
+	"cityId": "210100",
+	"bigAreaName": "东北",
+	"provinceName": "辽宁省",
+	"cityName": "沈阳市",
+	"schoolName": "pyth1on北学校",
+	"branchGrade": "1"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","isAdmin":"2","Content-Type":"application/json","token":"${token}$","userId":"${sysUserId}$","signature":"79E48482F30ED5CA96DCBB4DFA43D1576DBC2B74"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2426,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="I5" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2743,7 +2828,7 @@
         <v>82</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="4">
@@ -3037,9 +3122,9 @@
     <hyperlink ref="D9" r:id="rId1" display="http://172.17.0.139:5004/categories/115/skus/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3048,20 +3133,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF932F65-89C8-42EC-8E15-854D7A047C1E}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="29" style="22" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3114,7 +3200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42">
+    <row r="2" spans="1:16" ht="56">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -3122,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>90</v>
@@ -3144,88 +3230,124 @@
         <v>82</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="42">
+    <row r="3" spans="1:16" ht="137" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="15"/>
+    <row r="4" spans="1:16" ht="42">
+      <c r="A4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>200</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:16" ht="140">
+      <c r="A5" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="15"/>
+      <c r="C5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="I5" s="16"/>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4">
+        <v>200</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
@@ -3497,12 +3619,11 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://pycmstsl.lexue.com/system/sysUser/login" xr:uid="{D0E95A0F-0B58-47B4-8E9B-B66C2BA87B1A}"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://pycmstsl.lexue.com/system/sysUser/login" xr:uid="{B40257DB-EA9E-4D71-B720-FE0080A121D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
